--- a/data/master-datasource.xlsx
+++ b/data/master-datasource.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="datasources" sheetId="1" r:id="rId1"/>
+    <sheet name="sources" sheetId="1" r:id="rId1"/>
     <sheet name="variable_id" sheetId="2" r:id="rId2"/>
+    <sheet name="indicators" sheetId="3" r:id="rId3"/>
+    <sheet name="fcst_variables" sheetId="4" r:id="rId4"/>
+    <sheet name="fcst_sources" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="472">
   <si>
     <t>indicator_type</t>
   </si>
@@ -42,13 +45,1402 @@
   </si>
   <si>
     <t>publication_lags</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>source_description</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Macrobond</t>
+  </si>
+  <si>
+    <t>BLP</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>St. Louis Fed Fred, US</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>St. Louis Fed Alfred, US</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>Energy Information Administration, US</t>
+  </si>
+  <si>
+    <t>US Census</t>
+  </si>
+  <si>
+    <t>CEIC</t>
+  </si>
+  <si>
+    <t>CEIC Data</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Macrosynergy Partners</t>
+  </si>
+  <si>
+    <t>Manufacturing PMI</t>
+  </si>
+  <si>
+    <t>Non-Manufacturing PMI</t>
+  </si>
+  <si>
+    <t>Business Barometer, SA</t>
+  </si>
+  <si>
+    <t>Manufacturing, Purchasing Managers Index</t>
+  </si>
+  <si>
+    <t>Non-Manufacturing, Purchasing Managers Index</t>
+  </si>
+  <si>
+    <t>Chicago Business Barometer, Business Barometer, SA</t>
+  </si>
+  <si>
+    <t>Business Surveys</t>
+  </si>
+  <si>
+    <t>provider_name</t>
+  </si>
+  <si>
+    <t>ISM</t>
+  </si>
+  <si>
+    <t>Institute For Supply Management</t>
+  </si>
+  <si>
+    <t>IHS Markit</t>
+  </si>
+  <si>
+    <t>Conference Board</t>
+  </si>
+  <si>
+    <t>The Conference Board</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Philadelphia</t>
+  </si>
+  <si>
+    <t>United States Bureau of Labour Statistics</t>
+  </si>
+  <si>
+    <t>United States Census Bureau</t>
+  </si>
+  <si>
+    <t>United States Bureau of Economic Analysis</t>
+  </si>
+  <si>
+    <t>United States Federal Reserves</t>
+  </si>
+  <si>
+    <t>Federal Reserves</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Atlanta</t>
+  </si>
+  <si>
+    <t>Atlanta Fed</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of New York</t>
+  </si>
+  <si>
+    <t>New York Fed</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank of Richmond</t>
+  </si>
+  <si>
+    <t>Richmond Fed</t>
+  </si>
+  <si>
+    <t>indicator_id</t>
+  </si>
+  <si>
+    <t>vendor_key</t>
+  </si>
+  <si>
+    <t>ussurv1055</t>
+  </si>
+  <si>
+    <t>ussurv1044</t>
+  </si>
+  <si>
+    <t>ussurv1363</t>
+  </si>
+  <si>
+    <t>Consumer Confidence Index, SA</t>
+  </si>
+  <si>
+    <t>Consumer Confidence Index, Total, Total, SA</t>
+  </si>
+  <si>
+    <t>Consumer Surveys</t>
+  </si>
+  <si>
+    <t>ussurv1459</t>
+  </si>
+  <si>
+    <t>Consumer Sentiment Index</t>
+  </si>
+  <si>
+    <t>ussurv0354</t>
+  </si>
+  <si>
+    <t>Business Outlook Survey Manufacturing</t>
+  </si>
+  <si>
+    <t>Manufacturing, Current General Activity, Diffusion, SA</t>
+  </si>
+  <si>
+    <t>Business Outlook Survey</t>
+  </si>
+  <si>
+    <t>Anxious Index</t>
+  </si>
+  <si>
+    <t>Probability of Declie in Real GDP in the Current Quarter</t>
+  </si>
+  <si>
+    <t>Survey of Professional Forecasters</t>
+  </si>
+  <si>
+    <t>ussurv1102</t>
+  </si>
+  <si>
+    <t>usfcst0074</t>
+  </si>
+  <si>
+    <t>Hours Worked Average Weekly</t>
+  </si>
+  <si>
+    <t>Hours Worked, Average Weekly, Production &amp; Non-Supervisory Employees, Total Private, SA</t>
+  </si>
+  <si>
+    <t>Productivity, Costs &amp; Hours Worked</t>
+  </si>
+  <si>
+    <t>Unemployment Rate</t>
+  </si>
+  <si>
+    <t>Unemployment, CPS, 16 Years &amp; Over, Rate, SA</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Employment Non-Farm Payroll</t>
+  </si>
+  <si>
+    <t>Employment, CES, Nonfarm, Payroll, Total, SA</t>
+  </si>
+  <si>
+    <t>Employment Participation Rate</t>
+  </si>
+  <si>
+    <t>Consumer Price Index</t>
+  </si>
+  <si>
+    <t>Consumer Price Index, All Urban Consumers, U.S. City Average, All Items, SA</t>
+  </si>
+  <si>
+    <t>Civilian Labour Force Participation Rate, Women &amp; Men, 16 Years &amp; Over, SA</t>
+  </si>
+  <si>
+    <t>uspric2156</t>
+  </si>
+  <si>
+    <t>uslama1135</t>
+  </si>
+  <si>
+    <t>uslama1849</t>
+  </si>
+  <si>
+    <t>uslama1060</t>
+  </si>
+  <si>
+    <t>uslama4486</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Construction by Status</t>
+  </si>
+  <si>
+    <t>Construction Finances</t>
+  </si>
+  <si>
+    <t>Domestic Trade</t>
+  </si>
+  <si>
+    <t>Manufacturing Inventories</t>
+  </si>
+  <si>
+    <t>Manufacturers Inventories, Total, Durable Goods, All, All, Current Prices, SA, USD</t>
+  </si>
+  <si>
+    <t>New Orders, Durable Goods, Total, All, SA, USD</t>
+  </si>
+  <si>
+    <t>Unfilled Orders, Durable Goods, Total, All, SA, USD</t>
+  </si>
+  <si>
+    <t>Unfilled Orders Durable Goods</t>
+  </si>
+  <si>
+    <t>New Orders Durable Goods</t>
+  </si>
+  <si>
+    <t>Permits, Residential, New Privately Owned, Total, SA, AR</t>
+  </si>
+  <si>
+    <t>Permits, Residential, National, New Privately Owned, Total, SA, AR</t>
+  </si>
+  <si>
+    <t>Retail Sales</t>
+  </si>
+  <si>
+    <t>Retail Trade, Retail Sales, Total, Calendar Adjusted, SA, USD</t>
+  </si>
+  <si>
+    <t>Sales, Calendar Adjusted, SA, USD</t>
+  </si>
+  <si>
+    <t>Whole Sales</t>
+  </si>
+  <si>
+    <t>Construction Started Residential</t>
+  </si>
+  <si>
+    <t>Construction Started, Residential, New Privately Owned, Total, SA, AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Inventories, Calendar Adjusted, SA, USD</t>
+  </si>
+  <si>
+    <t>Residential Construction Spending (nominal)</t>
+  </si>
+  <si>
+    <t>Private, Residential, Total, SA, AR, USCB, Spending</t>
+  </si>
+  <si>
+    <t>ustrad0070</t>
+  </si>
+  <si>
+    <t>ustrad1020</t>
+  </si>
+  <si>
+    <t>ustrad0401</t>
+  </si>
+  <si>
+    <t>uscons2380</t>
+  </si>
+  <si>
+    <t>usprod0805</t>
+  </si>
+  <si>
+    <t>usprod1385</t>
+  </si>
+  <si>
+    <t>uscons1156</t>
+  </si>
+  <si>
+    <t>uscons1146</t>
+  </si>
+  <si>
+    <t>usprod1501</t>
+  </si>
+  <si>
+    <t>PCE Non-Durable, Real</t>
+  </si>
+  <si>
+    <t>PCE Durable, Real</t>
+  </si>
+  <si>
+    <t>PCE Services, Real</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Real</t>
+  </si>
+  <si>
+    <t>anufacturing Sales, Real</t>
+  </si>
+  <si>
+    <t>Real Retail Sales and Food Service</t>
+  </si>
+  <si>
+    <t>Imports, Nominal</t>
+  </si>
+  <si>
+    <t>Exports, Nominal</t>
+  </si>
+  <si>
+    <t>PCE Service Price Index</t>
+  </si>
+  <si>
+    <t>PCE Total Price Index</t>
+  </si>
+  <si>
+    <t>PCE Durable Goods Price Index</t>
+  </si>
+  <si>
+    <t>PCE Non-Durable Goods Price Index</t>
+  </si>
+  <si>
+    <t>Disposable Personal Income, Real</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product, Real</t>
+  </si>
+  <si>
+    <t>PCE Durable Goods, Nominal</t>
+  </si>
+  <si>
+    <t>PCE Nondurable Goods, Nominal</t>
+  </si>
+  <si>
+    <t>Expenditure Approach</t>
+  </si>
+  <si>
+    <t>Expenditure Appraoch</t>
+  </si>
+  <si>
+    <t>Domestic trade</t>
+  </si>
+  <si>
+    <t>Foreign Trade</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Income Approach</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Non-Durable, Real, Total, Chained, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Durable, Real, Total, Chained, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Services, Real, Total, Chained, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Retail Trade, Retail Sales, Total, Calendar Adjusted, SA,  USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Total, Constant Prices, SA, Index</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Services, Total,  SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Real, Total, Chained, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Manufacturing &amp; Trade, Sales, Total Business, Constant Prices,  SA, Chained, USD</t>
+  </si>
+  <si>
+    <t>Retail Trade, Retail &amp; Food Service Sale, Constant Prices, SA, Chained USD</t>
+  </si>
+  <si>
+    <t>Export of Goods &amp; Services, Total, Current Prices, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Import of Goods &amp; Services, Total, Current Prices, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Services Price Index, SA</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Total Price Index, SA</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Durable Goods Price Index, SA</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Non-Durable Goods Price Index, SA</t>
+  </si>
+  <si>
+    <t>Disposable Personal Income, Total, Constant Prices, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Durable Goods, Total, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Non-durable Goods, Total, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product, Total, Constant Prices, SA,  Chained,  AR, USD</t>
+  </si>
+  <si>
+    <t>usnaac0591</t>
+  </si>
+  <si>
+    <t>usnaac0766</t>
+  </si>
+  <si>
+    <t>usnaac33313</t>
+  </si>
+  <si>
+    <t>usnaac0699</t>
+  </si>
+  <si>
+    <t>usnaac0844</t>
+  </si>
+  <si>
+    <t>usnaac0697</t>
+  </si>
+  <si>
+    <t>ustrad0350</t>
+  </si>
+  <si>
+    <t>ustrad0801</t>
+  </si>
+  <si>
+    <t>ustrad1990</t>
+  </si>
+  <si>
+    <t>ustrad1967</t>
+  </si>
+  <si>
+    <t>uspric0005</t>
+  </si>
+  <si>
+    <t>uspric0002</t>
+  </si>
+  <si>
+    <t>uspric0003</t>
+  </si>
+  <si>
+    <t>uspric0004</t>
+  </si>
+  <si>
+    <t>usnaac3029</t>
+  </si>
+  <si>
+    <t>usnaac33303</t>
+  </si>
+  <si>
+    <t>usnaac33308</t>
+  </si>
+  <si>
+    <t>usnaac0169</t>
+  </si>
+  <si>
+    <t>Imports, Real</t>
+  </si>
+  <si>
+    <t>Exports, Real</t>
+  </si>
+  <si>
+    <t>Import, Total, Chained, Constant Prices, SA, USD</t>
+  </si>
+  <si>
+    <t>Export, Total, Chained, Constant Prices, SA, USD</t>
+  </si>
+  <si>
+    <t>ustrad1018</t>
+  </si>
+  <si>
+    <t>ustrad1014</t>
+  </si>
+  <si>
+    <t>Industrial Production, Nominal</t>
+  </si>
+  <si>
+    <t>Industrial Production, Total, SA, Index</t>
+  </si>
+  <si>
+    <t>Capacity Utilisation</t>
+  </si>
+  <si>
+    <t>Capacity Utilization, Percent of Capacity, SA</t>
+  </si>
+  <si>
+    <t>Industrial Production, Real</t>
+  </si>
+  <si>
+    <t>Industrial Production, Gross Value of Products, Final Products, Constant Prices, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>usprod1024</t>
+  </si>
+  <si>
+    <t>usprod1022</t>
+  </si>
+  <si>
+    <t>usprod1071</t>
+  </si>
+  <si>
+    <t>Median Real GDP Growth rates</t>
+  </si>
+  <si>
+    <t>Mean Real GDP Growth Rates</t>
+  </si>
+  <si>
+    <t>usfcst1745</t>
+  </si>
+  <si>
+    <t>usfcst1810</t>
+  </si>
+  <si>
+    <t>Real GDP, Current Quarter, Mean Underlying, Growth , Estimate, SA, AR</t>
+  </si>
+  <si>
+    <t>Real GDP, Current Quarter, Median Underlying, Growth, Estimate, SA, AR</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2017-Q2</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2017-Q2 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2017-Q1</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q4</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q3</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q2</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q1</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2015-Q4</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2017-Q1 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q4 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q3 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q2 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2016-Q1 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPnow 2015-Q4 Mean Real GDP Growth rates (SAAR)</t>
+  </si>
+  <si>
+    <t>GDPNow</t>
+  </si>
+  <si>
+    <t>usfcst2473</t>
+  </si>
+  <si>
+    <t>usfcst1847</t>
+  </si>
+  <si>
+    <t>usfcst1884</t>
+  </si>
+  <si>
+    <t>usfcst1841</t>
+  </si>
+  <si>
+    <t>usfcst1469</t>
+  </si>
+  <si>
+    <t>usfcst0819</t>
+  </si>
+  <si>
+    <t>usfcst0803</t>
+  </si>
+  <si>
+    <t>NY Fed GDP Nowcast Q2-2017</t>
+  </si>
+  <si>
+    <t>NY Fed Nowcast</t>
+  </si>
+  <si>
+    <t>NY Fed GDP Nowcast Q1-2017</t>
+  </si>
+  <si>
+    <t>Empire State Index, current activity</t>
+  </si>
+  <si>
+    <t>Empire State Index, Future Activity</t>
+  </si>
+  <si>
+    <t>NY Fed Business Leaders Business Activity index</t>
+  </si>
+  <si>
+    <t>NY Fed Business Leaders Business Future Activity</t>
+  </si>
+  <si>
+    <t>Current General Activity, Index, SA</t>
+  </si>
+  <si>
+    <t>Empire State Manufacturing Survey</t>
+  </si>
+  <si>
+    <t>Future General Activity, Index, SA</t>
+  </si>
+  <si>
+    <t>Diffusion Indexes for Current Conditions, Business Activity</t>
+  </si>
+  <si>
+    <t>Business Leaders Survey</t>
+  </si>
+  <si>
+    <t>Diffusion Indexes for Future Conditions, Business Activity</t>
+  </si>
+  <si>
+    <t>usfcst0139</t>
+  </si>
+  <si>
+    <t>usfcst1969</t>
+  </si>
+  <si>
+    <t>ussurv1000</t>
+  </si>
+  <si>
+    <t>ussurv1010</t>
+  </si>
+  <si>
+    <t>ussurv3900</t>
+  </si>
+  <si>
+    <t>ussurv3904</t>
+  </si>
+  <si>
+    <t>Fifth District Survey of Manufacturing Activity</t>
+  </si>
+  <si>
+    <t>Fifth District Survey of Service Sector Activity</t>
+  </si>
+  <si>
+    <t>Richmond Fed Manufacturing Index</t>
+  </si>
+  <si>
+    <t>Service Sector Indicator, Revenues, SA</t>
+  </si>
+  <si>
+    <t>Current Conditions, Manufacturing Index, SA</t>
+  </si>
+  <si>
+    <t>Service-Sector Indicator, Revenues, SA Richmond Fed Services Index</t>
+  </si>
+  <si>
+    <t>ussurv1066</t>
+  </si>
+  <si>
+    <t>ussurv1306</t>
+  </si>
+  <si>
+    <t>Markit PMI Manufacturing Index</t>
+  </si>
+  <si>
+    <t>Markit PMI Manufacturing Index, SA</t>
+  </si>
+  <si>
+    <t>Markit PMI Services</t>
+  </si>
+  <si>
+    <t>Business Surveys, Markit, Services, Services PMI Business Activity Index</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>markit_3y_pmiusmanmepm</t>
+  </si>
+  <si>
+    <t>markit_3y_pmiusmanmepmu</t>
+  </si>
+  <si>
+    <t>markit_3y_pmiussermeobu</t>
+  </si>
+  <si>
+    <t>PCE Services,  Nominal</t>
+  </si>
+  <si>
+    <t>NIPA</t>
+  </si>
+  <si>
+    <t>PCE, Real</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Chained, Total, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>usnaac1137</t>
+  </si>
+  <si>
+    <t>Net Export, Real</t>
+  </si>
+  <si>
+    <t>Net Export, Chained, Goods &amp; Services, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>Export, Real</t>
+  </si>
+  <si>
+    <t>Export, Chained, Goods &amp; Services, Total, SA, AR, USD</t>
+  </si>
+  <si>
+    <t>usnaac1149</t>
+  </si>
+  <si>
+    <t>usnaac1150</t>
+  </si>
+  <si>
+    <t>usnaac1153</t>
+  </si>
+  <si>
+    <t>Import, Real</t>
+  </si>
+  <si>
+    <t>Import, Total, Chained, Goods &amp; Services, Total, Chained, AR, SA, USD</t>
+  </si>
+  <si>
+    <t>Investment, Real</t>
+  </si>
+  <si>
+    <t>Investment, Chained, Fixed, Total, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>usnaac1143</t>
+  </si>
+  <si>
+    <t>usnaac1142</t>
+  </si>
+  <si>
+    <t>usnaac1148</t>
+  </si>
+  <si>
+    <t>Investment, Change in Inventories, Real</t>
+  </si>
+  <si>
+    <t>Investment, Change in Inventories, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>Investment, Fixed</t>
+  </si>
+  <si>
+    <t>Investment, Chained, Total, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>GDP Residual, Real</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product, Chained, Residual, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>usnaac1161</t>
+  </si>
+  <si>
+    <t>Government Spending, Real</t>
+  </si>
+  <si>
+    <t>Government Consumption Expenditures &amp; Gross Investment, Chained, Government Consumption Expenditures &amp; Gross Investment, Total, SA, Chained, AR, USD</t>
+  </si>
+  <si>
+    <t>usnaac1156</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Consumption, Real, Index</t>
+  </si>
+  <si>
+    <t>fcst_variable_id</t>
+  </si>
+  <si>
+    <t>ECPIUS</t>
+  </si>
+  <si>
+    <t>ECUPUS</t>
+  </si>
+  <si>
+    <t>target_variable_id</t>
+  </si>
+  <si>
+    <t>fcst_variable_tick</t>
+  </si>
+  <si>
+    <t>ECHHUS</t>
+  </si>
+  <si>
+    <t>ECGVUS</t>
+  </si>
+  <si>
+    <t>ECIVUS</t>
+  </si>
+  <si>
+    <t>ECXPUS</t>
+  </si>
+  <si>
+    <t>ECMPUS</t>
+  </si>
+  <si>
+    <t>ECIUUS</t>
+  </si>
+  <si>
+    <t>ECPCUS</t>
+  </si>
+  <si>
+    <t>ECCCUS</t>
+  </si>
+  <si>
+    <t>ECNFUS</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Real GDP growth</t>
+  </si>
+  <si>
+    <t>CPI Inflation</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Real Consumption</t>
+  </si>
+  <si>
+    <t>Real Government Spending</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Industrial Production</t>
+  </si>
+  <si>
+    <t>PCE Core Inflation</t>
+  </si>
+  <si>
+    <t>PCE Price Inflation</t>
+  </si>
+  <si>
+    <t>Nonfarm Payrolls</t>
+  </si>
+  <si>
+    <t>PCE, Core Inflation</t>
+  </si>
+  <si>
+    <t>Personal Consumption Expenditures, Excluding Food &amp; Energy Price Index, SA</t>
+  </si>
+  <si>
+    <t>uspric0006</t>
+  </si>
+  <si>
+    <t>Action Economics</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>Avalon Advisors</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t>AXA Investment Managers</t>
+  </si>
+  <si>
+    <t>AXA</t>
+  </si>
+  <si>
+    <t>Banco Bradesco</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Bank of America Merrillynch</t>
+  </si>
+  <si>
+    <t>BOA</t>
+  </si>
+  <si>
+    <t>Bank of the West</t>
+  </si>
+  <si>
+    <t>BTW</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>BBVA Research</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>Berenberg Bank</t>
+  </si>
+  <si>
+    <t>BGB</t>
+  </si>
+  <si>
+    <t>Bloomberg Intelligence</t>
+  </si>
+  <si>
+    <t>BIE</t>
+  </si>
+  <si>
+    <t>BMO Capital</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Canadian Imperial Bank</t>
+  </si>
+  <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>Capital Economics</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Citigroup</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>CME Group</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>Comerica</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Credit Agricole CIB</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>Credit Suisse Group</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>Desjardins Securities</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>Deutche Bank</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Euler Hermes</t>
+  </si>
+  <si>
+    <t>EUL</t>
+  </si>
+  <si>
+    <t>Fannie Mae</t>
+  </si>
+  <si>
+    <t>FNM</t>
+  </si>
+  <si>
+    <t>First Trust Advisors</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>Freddie Mac</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>FTN Financial</t>
+  </si>
+  <si>
+    <t>FTN</t>
+  </si>
+  <si>
+    <t>Georgia State University</t>
+  </si>
+  <si>
+    <t>GSU</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Group</t>
+  </si>
+  <si>
+    <t>Helaba Bank</t>
+  </si>
+  <si>
+    <t>HLA</t>
+  </si>
+  <si>
+    <t>High Frequency Economics</t>
+  </si>
+  <si>
+    <t>HFE</t>
+  </si>
+  <si>
+    <t>HIS Economics</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>Hugh Johnson Advisors</t>
+  </si>
+  <si>
+    <t>HUG</t>
+  </si>
+  <si>
+    <t>ING Group</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>Julius Baer</t>
+  </si>
+  <si>
+    <t>JBC</t>
+  </si>
+  <si>
+    <t>Kennesaw State University</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>KPM</t>
+  </si>
+  <si>
+    <t>Macroeconomic Advisers</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MacroFin Analytics LLC</t>
+  </si>
+  <si>
+    <t>MFN</t>
+  </si>
+  <si>
+    <t>MFR, Inc.</t>
+  </si>
+  <si>
+    <t>MFR</t>
+  </si>
+  <si>
+    <t>MOO</t>
+  </si>
+  <si>
+    <t>MUFG</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>Naroff Economic Advisors</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>National Association of Home Builders</t>
+  </si>
+  <si>
+    <t>NAH</t>
+  </si>
+  <si>
+    <t>National Bank Financial</t>
+  </si>
+  <si>
+    <t>NBF</t>
+  </si>
+  <si>
+    <t>Natl Truck Equipment</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>Nomura Securities</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Norddeutsche Landesbank</t>
+  </si>
+  <si>
+    <t>NRD</t>
+  </si>
+  <si>
+    <t>Northern Trust</t>
+  </si>
+  <si>
+    <t>NTR</t>
+  </si>
+  <si>
+    <t>Oxford Economics</t>
+  </si>
+  <si>
+    <t>OXE</t>
+  </si>
+  <si>
+    <t>Pantheon Macroeconomics</t>
+  </si>
+  <si>
+    <t>PMA</t>
+  </si>
+  <si>
+    <t>Parsec Financial Management</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>Pierpont Securities</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
+  <si>
+    <t>Piper Jaffray &amp; Co.</t>
+  </si>
+  <si>
+    <t>PJC</t>
+  </si>
+  <si>
+    <t>PNC Financial</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>PNU</t>
+  </si>
+  <si>
+    <t>Prestige Economics LLC</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Rabobank</t>
+  </si>
+  <si>
+    <t>RAB</t>
+  </si>
+  <si>
+    <t>Raiffeisen Zentralbank</t>
+  </si>
+  <si>
+    <t>RZB</t>
+  </si>
+  <si>
+    <t>Raymond James Financial</t>
+  </si>
+  <si>
+    <t>RJF</t>
+  </si>
+  <si>
+    <t>RBC Financial Group</t>
+  </si>
+  <si>
+    <t>RFG</t>
+  </si>
+  <si>
+    <t>Regions Financial</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Scotia Capital</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>SMBC Nikko</t>
+  </si>
+  <si>
+    <t>SMN</t>
+  </si>
+  <si>
+    <t>Stifel Financial</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Swiss Reinsurance</t>
+  </si>
+  <si>
+    <t>SWR</t>
+  </si>
+  <si>
+    <t>TD Securities</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>UMB Bank</t>
+  </si>
+  <si>
+    <t>UMB</t>
+  </si>
+  <si>
+    <t>UniCredit</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>UMD</t>
+  </si>
+  <si>
+    <t>University of Texas/El P</t>
+  </si>
+  <si>
+    <t>UTE</t>
+  </si>
+  <si>
+    <t>US Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Vinning Sparks</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>fcst_source_id</t>
+  </si>
+  <si>
+    <t>fcst_source_name</t>
+  </si>
+  <si>
+    <t>fcst_source_code</t>
+  </si>
+  <si>
+    <t>ECGDUS</t>
+  </si>
+  <si>
+    <t>Point Loma Nazaren Uni</t>
+  </si>
+  <si>
+    <t>Moodys</t>
+  </si>
+  <si>
+    <t>GS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,8 +1448,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +1483,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,18 +1498,423 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -116,8 +1940,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -126,6 +1950,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C20" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:C20"/>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="source_id" dataDxfId="31"/>
+    <tableColumn id="2" name="source_name" dataDxfId="30"/>
+    <tableColumn id="3" name="source_description" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I76" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:I76"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="variable_id" dataDxfId="26"/>
+    <tableColumn id="2" name="variable_name" dataDxfId="25"/>
+    <tableColumn id="3" name="variable_description" dataDxfId="24"/>
+    <tableColumn id="4" name="source_name" dataDxfId="23"/>
+    <tableColumn id="5" name="dataset" dataDxfId="22"/>
+    <tableColumn id="6" name="frequency_id" dataDxfId="21"/>
+    <tableColumn id="7" name="country_id" dataDxfId="20"/>
+    <tableColumn id="8" name="indicator_type" dataDxfId="19"/>
+    <tableColumn id="9" name="publication_lags" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E76" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:E76"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="indicator_id" dataDxfId="15"/>
+    <tableColumn id="2" name="provider_name" dataDxfId="14"/>
+    <tableColumn id="3" name="vendor_key" dataDxfId="13"/>
+    <tableColumn id="4" name="variable_id" dataDxfId="12"/>
+    <tableColumn id="5" name="active" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A1:D13"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="fcst_variable_id" dataDxfId="10"/>
+    <tableColumn id="2" name="fcst_variable_tick" dataDxfId="9"/>
+    <tableColumn id="3" name="target_variable_id" dataDxfId="8"/>
+    <tableColumn id="4" name="Note" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C76" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:C76"/>
+  <sortState ref="A2:C76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="fcst_source_id" dataDxfId="4"/>
+    <tableColumn id="2" name="fcst_source_name" dataDxfId="3"/>
+    <tableColumn id="3" name="fcst_source_code" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,73 +2314,4644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="78.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>184</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>184</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>184</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>184</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G7" s="1">
+        <v>184</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>184</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>184</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>184</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>184</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>184</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>184</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>184</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>184</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>184</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>184</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>184</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>184</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>184</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>184</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>184</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>184</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>184</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>184</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>184</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>184</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>184</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>184</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>184</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>184</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="1">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>184</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>184</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>184</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>184</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>184</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>184</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>184</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>184</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>184</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>184</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>184</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="1">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>184</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>184</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>184</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>184</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>184</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>184</v>
+      </c>
+      <c r="H48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>184</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>184</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>184</v>
+      </c>
+      <c r="H51" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>184</v>
+      </c>
+      <c r="H52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>184</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>184</v>
+      </c>
+      <c r="H54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>184</v>
+      </c>
+      <c r="H55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>184</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>184</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>184</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>184</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" s="1">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>184</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>184</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>184</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>184</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7</v>
+      </c>
+      <c r="G64" s="1">
+        <v>184</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>184</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1">
+        <v>184</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <v>184</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="1">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <v>184</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>184</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F70" s="1">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1">
+        <v>184</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71" s="1">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1">
+        <v>184</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F72" s="1">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1">
+        <v>184</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="1">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1">
+        <v>184</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="1">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1">
+        <v>184</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="1">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1">
+        <v>184</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1">
+        <v>184</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="1">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="1">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="1">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="1">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="1">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="1">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="1">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="1">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="1">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="1">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="1">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="1">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="1">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="1">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="1">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="1">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="1">
+        <v>65</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="8">
+        <v>66</v>
+      </c>
+      <c r="E67" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="7">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="8">
+        <v>68</v>
+      </c>
+      <c r="E69" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="8">
+        <v>69</v>
+      </c>
+      <c r="E70" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="8">
+        <v>70</v>
+      </c>
+      <c r="E71" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" s="8">
+        <v>71</v>
+      </c>
+      <c r="E72" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="8">
+        <v>72</v>
+      </c>
+      <c r="E73" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="8">
+        <v>73</v>
+      </c>
+      <c r="E74" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" s="8">
+        <v>74</v>
+      </c>
+      <c r="E75" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="6">
+        <v>75</v>
+      </c>
+      <c r="E76" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="1">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="1">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="1">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="1">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="1">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="1">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>